--- a/#JokerFull.xlsx
+++ b/#JokerFull.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -10,7 +10,7 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1433,8 +1433,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,7 +1466,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1489,6 +1489,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1497,26 +1512,34 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1554,7 +1577,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1588,6 +1611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1622,9 +1646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1797,2539 +1822,3446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="158.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>233</v>
       </c>
+      <c r="B301" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A201"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>358</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A143" r:id="rId1" location="downtonabbeyfilm%20#joker%20#frozen2%20#terminatordarkfate%20#theriseofskywalker&#10;&#10;which%20film%20are%20you%20looking%20forward%20to?"/>
+    <hyperlink ref="A143" r:id="rId1" location="downtonabbeyfilm%20#joker%20#frozen2%20#terminatordarkfate%20#theriseofskywalker_x000a__x000a_which%20film%20are%20you%20looking%20forward%20to?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/#JokerFull.xlsx
+++ b/#JokerFull.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="360">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1428,6 +1428,9 @@
   <si>
     <t>point out the way to one who had got lost...
 #cannabis #marijuana #activism #philosophy #journalism #provocations #culture #lifestyle #awareness #medicalmarijuana #cannabisculture #cbdhype #vape #cbdoil #hotdogwater #fakenews #poison #lungfailure #faketerps #snakeoil #joker https://t.co/wtfinkyfq0</t>
+  </si>
+  <si>
+    <t>Classe</t>
   </si>
 </sst>
 </file>
@@ -1825,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,6 +1842,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4248,1015 +4254,1623 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="120.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>358</v>
+      </c>
+      <c r="B201" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5264,5 +5878,6 @@
     <hyperlink ref="A143" r:id="rId1" location="downtonabbeyfilm%20#joker%20#frozen2%20#terminatordarkfate%20#theriseofskywalker_x000a__x000a_which%20film%20are%20you%20looking%20forward%20to?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/#JokerFull.xlsx
+++ b/#JokerFull.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfa1\Desktop\Projeto-2-CDados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB517862-62C3-43D0-9E4D-C759DE173066}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="467">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1432,12 +1438,358 @@
   <si>
     <t>Classe</t>
   </si>
+  <si>
+    <t>rt @bverhoev: #joker is dark. really violent, and joaquin phoenix’s performance is astounding. crowd gasped and said “oh my god” several ti…</t>
+  </si>
+  <si>
+    <t>rt @jasonguerrasio: #joker is an extremely ultra violent tale but it’s also a concerning commentary on mental illness, class, feeling ostra…</t>
+  </si>
+  <si>
+    <t>rt @theotherscottm: joker is phenomenal. joaquin phoenix’s performance is next level. no other performance this year will be able to top th…</t>
+  </si>
+  <si>
+    <t>rt @dcfilmgirl: #joker is one of the most frightening movies i’ve ever seen. i can’t imagine anyone winning over joaquin at this point. the…</t>
+  </si>
+  <si>
+    <t>rt @cointiplyfaucet: use promo code joker to get 192 free coins. 
+first 700 users only!
+https://t.co/yi5sybu0ga
+and don't forget our retw…</t>
+  </si>
+  <si>
+    <t>rt @usweekly: why we gave #joker 2 out of 4 stars 🍿🎞️: https://t.co/76nhxfvgun</t>
+  </si>
+  <si>
+    <t>rt @voxdotcom: #joker is far less edgy than it wants to be. #tiff19 https://t.co/hbms3dbkev</t>
+  </si>
+  <si>
+    <t>rt @posterspy: joker (2019) alternative poster art uploaded by @ricojrcrea 
+https://t.co/ujn3gi507r
+#joker #jokermovie #posterspy https://t…</t>
+  </si>
+  <si>
+    <t>rt @pnemiroff: #joker is one of the most unnerving movies i've seen in years. joaquin phoenix is astounding - the physicality of his work i…</t>
+  </si>
+  <si>
+    <t>rt @_brooklynbatman: it’s totally fine if you’ve seen the leaked #joker scenes but describing them is just being an idiot 
+don’t be that gu…</t>
+  </si>
+  <si>
+    <t>rt @subversivegirl: done! 🤡🤡🤡
+#joker #joaquinphoenix #villain #dc #psycho #crazy #hahaha #smile #funny #mood #art #fanart #portrait #draw #…</t>
+  </si>
+  <si>
+    <t>rt @joellemonique: finally saw #joker. haven't seen a film this joyless in a hot minute. i do not like narratives that put masked villains…</t>
+  </si>
+  <si>
+    <t>rt @wordsbycole: #joker is cold and distant, yet up close and personal. 
+#joaquinphoenix  is every bit as brilliant as you’ve heard. the f…</t>
+  </si>
+  <si>
+    <t>rt @empiremagazine: could comic book movies finally break the oscars in 2020? @benstravis explores the early awards chances of #joker and #…</t>
+  </si>
+  <si>
+    <t>rt @areelofonesown: after #joker, i think the only way #joaquinphoenix could still shock is if he played a healthy, well-adjusted person. #…</t>
+  </si>
+  <si>
+    <t>rt @collidervideo: don't expect to see robert pattinson's #batman meet joaquin phoenix's #joker! we'll talk about that #jokermovie news + d…</t>
+  </si>
+  <si>
+    <t>rt @moviemantz: joker: not your daddy’s #joker movie. riveting &amp;amp; engrossing, unnerving &amp;amp; disturbing, intense &amp;amp; very violent. a cross betwee…</t>
+  </si>
+  <si>
+    <t>rt @iamhamedabbasi: #joker is going to take every award home this year. what a movie !!! #tiff19 https://t.co/baovd4hmiq</t>
+  </si>
+  <si>
+    <t>the @untitled_cast #tiff19  coverage continues with our review of #joker.
+40 minutes of spoiler-free impressions.… https://t.co/f6fsxddc9z</t>
+  </si>
+  <si>
+    <t>rt @gamebredfighter: one called me a super hero the other a clown #theresurrection #joker https://t.co/tg338bs2yy</t>
+  </si>
+  <si>
+    <t>rt @indiewire: joaquin phoenix never liked thomas wayne being included in #joker script https://t.co/vuxkszfozi https://t.co/yfypkgirpr</t>
+  </si>
+  <si>
+    <t>rt @ashleygmenzel: tiff 2019: "joker" review https://t.co/etzaakvkkk via @weliveentmt #jokermovie #joker #tiff2019 #tiff19</t>
+  </si>
+  <si>
+    <t>rt @variety: frances conroy shares her take on the #joker's motivations: "he's just a person that is one of many people in life that isn't…</t>
+  </si>
+  <si>
+    <t>rt @yousmmashogun: @gamebredfighter give them #joker #gamebred 🔥🔥 https://t.co/iaizpksd8z</t>
+  </si>
+  <si>
+    <t>rt @lukehearfield: my review of todd phillips’ masterful joker - https://t.co/cywwwnhxm9 
+joaquin phoenix is a tour de force!! everybody ne…</t>
+  </si>
+  <si>
+    <t>rt @those21: crazy! but i don't care lol do you?
+#ufc242 #usopen #usopenfinals #serena #shethenorth #itchaptertwo #joker #nickiminaj #retir…</t>
+  </si>
+  <si>
+    <t>rt @uproxx: #joker is the perfect movie for 2019, it is our comeuppance (via @mikeryan) https://t.co/nljs40sriy https://t.co/nou4ptp8sj</t>
+  </si>
+  <si>
+    <t>rt @bradcoopernet: bradley cooper attends the #joker premiere in toronto film featival. #tiff19 https://t.co/q5xy9fh9fm</t>
+  </si>
+  <si>
+    <t>rt @krathainoi: @jokermovie #joker nailed it!! impressive , dark and original. amazing adaptation. such a different movie to what comic boo…</t>
+  </si>
+  <si>
+    <t>rt @comicbookstalk: "there is no movie without joaquin phoenix. joaquin is the fiercest and brightest and most open-minded lion i know. tha…</t>
+  </si>
+  <si>
+    <t>we joined the #joker party 🚨 https://t.co/nczgfzglat</t>
+  </si>
+  <si>
+    <t>rt @nigelmfs: watched #joker in same row as lucas hedges who laughed every time joaquin phoenix did, which made for a doubly disturbing exp…</t>
+  </si>
+  <si>
+    <t>rt @h_alokaily2: #joker is the most arthouse studio release since 2049 and it shows. todd phillips has upped his directing game by 11 makin…</t>
+  </si>
+  <si>
+    <t>rt @bspodnetwork: we use some hyperbole, but this #podcast by @mfxpodcast is the best thing humans have ever achieved! it'll make your work…</t>
+  </si>
+  <si>
+    <t>rt @afis8: gonna have to sit with #joker for a little while, but i will say this - a lot of incels are going to feel pretty fucking empower…</t>
+  </si>
+  <si>
+    <t>rt @fandango: “i couldn’t imagine anyone else playing this #joker than joaquin phoenix.” #tiff19 https://t.co/cz2ro6dxwp</t>
+  </si>
+  <si>
+    <t>rt @sakimichanart: finally got around to painting #persona5 #joker &amp;lt;3 my take on him a  bit older with slight edit to his original design :…</t>
+  </si>
+  <si>
+    <t>rt @variety: #joker director todd phillips on how comic books are america's shakespeare https://t.co/pzdmkoljjn #tiff19 https://t.co/mi8krb…</t>
+  </si>
+  <si>
+    <t>#joker: a dark, mysterious and ambitious piece of work. but there is one thing we are not mentioning: it’s a shot-f… https://t.co/5i6qg9udyk</t>
+  </si>
+  <si>
+    <t>#joker took the top prize at #veneziafilmfestival . fyi this is a really big deal.  lest you think venice is a film… https://t.co/j8p5x4htww</t>
+  </si>
+  <si>
+    <t>rt @dcbrasil3: poster de coringa na times square. #joker #coringa #tiff19 https://t.co/yrqixp3xmc</t>
+  </si>
+  <si>
+    <t>“he has chaos in him.” todd phillips on the casting of joaquin phoenix as #joker https://t.co/sgjt5lejpp</t>
+  </si>
+  <si>
+    <t>rt @cinemablend: joker: the perfect origin story for a lunatic with no origin. todd phillips gives dc it’s first true masterpiece. the clow…</t>
+  </si>
+  <si>
+    <t>rt @keda_92: i think joaquin phoenix had a lot of fun with de niro #joker https://t.co/j6sbrd9gro</t>
+  </si>
+  <si>
+    <t>rt @bverhoev: #joker director todd phillips warns the #tiff19 crowd: “it’s fucking bonkers”</t>
+  </si>
+  <si>
+    <t>rt @histofthebatman: #batfact: today marks the 29th anniversary of the premier of tim burton’s 1989 film “batman”! learn about the influenc…</t>
+  </si>
+  <si>
+    <t>rt @cinematary: #joker: a future freshmen year college poster of a movie for those misunderstood misanthropes who the world is ignoring. th…</t>
+  </si>
+  <si>
+    <t>rt @jesabelraay: a clockwork orange &amp;amp; taxi driver both depicted an ultra violent psychopath &amp;amp; polarized audiences upon release while also r…</t>
+  </si>
+  <si>
+    <t>check your phone for a potential 'joker' malware. read the article to know how. #android #malwares #joker… https://t.co/rusa7amlww</t>
+  </si>
+  <si>
+    <t>rt @slit518: are you going to see #joker in theaters which comes out october 4th?</t>
+  </si>
+  <si>
+    <t>todd phillips, the director of #joker came to our #tiff19 screening. he did a quick and funny intro and then after… https://t.co/0g3pma7icw</t>
+  </si>
+  <si>
+    <t>these two can always be found clowning around! but only one takes the next step in the #roguesgalleryshowdown! will… https://t.co/2c0tt2nqdk</t>
+  </si>
+  <si>
+    <t>rt @connormovies: #joker : i’m speechless. a dark, disturbing &amp;amp; thought provoking character study that completely flips the superhero genre…</t>
+  </si>
+  <si>
+    <t>rt @dcfunited: “it started becoming something more than i anticipated. it was one of the greatest experiences of my career.”
+joaquin phoeni…</t>
+  </si>
+  <si>
+    <t>@jokermovie #joker nailed it!! impressive , dark and original. amazing adaptation. such a different movie to what c… https://t.co/oksmxzmub9</t>
+  </si>
+  <si>
+    <t>phew #joker is a disturbing, yet brilliant watch. even though the violence may not be as grandiose as you‘re imagin… https://t.co/2dlroafrv8</t>
+  </si>
+  <si>
+    <t>rt @figurestoyco: who's the man behind the mask?  one with a sinister grin and a taste for mayhem!  it's #thejoker masked maharaja variant,…</t>
+  </si>
+  <si>
+    <t>put your faith in me (audio) https://t.co/g4aosw4uib via @youtube 
+all invited!
+listen to this song...might need… https://t.co/5v8oovhvyd</t>
+  </si>
+  <si>
+    <t>war zu befürchten: "#joker is a tightly directed mood piece with an unforgettable performance at its center, but it… https://t.co/ofliazuaoi</t>
+  </si>
+  <si>
+    <t>rt @briantruitt: saw #joker. it is dark. think network as a comic book movie. freakily relevant to right now. nicely twisty though familiar…</t>
+  </si>
+  <si>
+    <t>rt @yahoomoviesuk: #joker director todd phillips has dashed hopes of robert pattinson's batman facing joaquin phoenix's joker on screen. ht…</t>
+  </si>
+  <si>
+    <t>rt @thr: todd phillips pursued joaquin phoenix for months to star in #joker https://t.co/tejsawqq66 https://t.co/ro9zlnsydu</t>
+  </si>
+  <si>
+    <t>was still skeptical about #joker from venice last week, but the movie slowly transformed me into a believer. todd p… https://t.co/znsyvfyhcj</t>
+  </si>
+  <si>
+    <t>rt @nigelmfs: #joker feels like the first anarchist blockbuster...? need a sleep to wrestle with it. joaquin phoenix has demons and we’re l…</t>
+  </si>
+  <si>
+    <t>rt @a_n_j_20: - murray, one more thing? 
+• yeah? 
+- when you bring me out, could you introduce me as joker? 
+#joker 
+#jokermovie https://t…</t>
+  </si>
+  <si>
+    <t>rt @cinesnark: also, it is time to once again sacrifice the waynes, so that the harvest may be good.
+https://t.co/zjla2v2zps
+#joker #tiff19</t>
+  </si>
+  <si>
+    <t>rt @sabrinamaddeaux: saw #joker last night and all i can think about is watching it again. a disturbing, but captivating reflection of our…</t>
+  </si>
+  <si>
+    <t>rt @taurooaldebaran: #joker #jokermovie in times square 🤡
+@jokermovie @arthurfleck___ https://t.co/cv5l6ptczg</t>
+  </si>
+  <si>
+    <t>i think in this moment the biggest offense that they could have just not done was all the little people jokes. ther… https://t.co/hi2ueb919v</t>
+  </si>
+  <si>
+    <t>rt @sean_oconnell: this is interesting. being asked a lot if #joaquinphoenix is “better” than heath ledger as the #joker. joaquin gets an e…</t>
+  </si>
+  <si>
+    <t>"be prepared to be repulsed and drawn in with equal measure, and to see one of the most powerful and provocative fi… https://t.co/1hjpcic8am</t>
+  </si>
+  <si>
+    <t>rt @jesabelraay: incredible. 🙌🏼 #joker🃏 https://t.co/xxj6e3vz6c</t>
+  </si>
+  <si>
+    <t>just arrived #funko #funkopop #popvinyl #exclusivepops #retiredpops #pops #originalfunko #alternatedimensiontoys… https://t.co/vmz7uixp0h</t>
+  </si>
+  <si>
+    <t>on the weirdly banal #joker; if this is what passes for edgy and shocking in your world, i don’t really know what t… https://t.co/mzq825zezr</t>
+  </si>
+  <si>
+    <t>joaquin phoenix never liked thomas wayne being included in #joker script @indiewire https://t.co/4rv15a5vcz https://t.co/ms7zqedoc0</t>
+  </si>
+  <si>
+    <t>#joker "definitely not" crossing with pattinson's #batman says director - on #tjcs, @johncampea, @burnettrm and… https://t.co/tnf9gljypa</t>
+  </si>
+  <si>
+    <t>without being in theaters yet, #joker is already receiving high praise. partial credit goes to “the dark knight” fo… https://t.co/5utr83rcxn</t>
+  </si>
+  <si>
+    <t>rt @daniellesatm: #joker is complete and utter trash. my review of #jokermovie from #tiff19: https://t.co/ulbfodfhgc</t>
+  </si>
+  <si>
+    <t>rt @constar24: well. #joker is now a thing i've seen. #tiff</t>
+  </si>
+  <si>
+    <t>here i go, wading into #joker discourse. this is 50% review, 50% editorial. joker's watchable, but not good. it has… https://t.co/4iebr6m0ic</t>
+  </si>
+  <si>
+    <t>rt @raminsetoodeh: joaquin phoenix and rooney mara just left the #joker party. #tiff19</t>
+  </si>
+  <si>
+    <t>artist of the day
+song by: @hazzybae @hazzybae 
+visuals by: @hazzybae @hazzybae 
+#joker #shilohdynasty #wshh… https://t.co/mo2zlynenk</t>
+  </si>
+  <si>
+    <t>rt @idi0tsyncratic: alex only likes movies made for cats, @rulex_19 puts a smile on your face, @iamrobbieclark hates star wars (?!) and jus…</t>
+  </si>
+  <si>
+    <t>also there are certain things you can only see so many times on screen and i thought we'd reached capacity but appa… https://t.co/ddkah7youb</t>
+  </si>
+  <si>
+    <t>hi joker ! #joaquinphoenix #joker #jokerfans #yessgame #hollywoodstar https://t.co/4ahcrkcbra</t>
+  </si>
+  <si>
+    <t>don't expect to see robert pattinson's #batman meet joaquin phoenix's #joker! we'll talk about that #jokermovie new… https://t.co/wgoyesxnuy</t>
+  </si>
+  <si>
+    <t>rt @sean_oconnell: this is not, at all, what the movie is about. so, problem solved! #joker https://t.co/c0unwox1to</t>
+  </si>
+  <si>
+    <t>incredible. 🙌🏼 #joker🃏 https://t.co/xxj6e3vz6c</t>
+  </si>
+  <si>
+    <t>rt @itsfilmthusiast: an early reference for #toddphillips and co-screenwriter scott silver was 1928's silent film "the man who laughs". the…</t>
+  </si>
+  <si>
+    <t>rt @cbumbray: more unsettled by #joker than i thought i would be.  it puts you in the mind of a psychopath for two hours and that’s not an…</t>
+  </si>
+  <si>
+    <t>in the spirit of the joker movie, i named my top 5 big bads #joker #doctordoom #znews #librairiez https://t.co/ph9zctwvaa</t>
+  </si>
+  <si>
+    <t>rt @raminsetoodeh: joaquin phoenix on playing #joker: “it was one of the greatest experiences of my career.” #tiff19 https://t.co/x5ev6gpdta</t>
+  </si>
+  <si>
+    <t>if you don't wanna watch a movie simply say don't come with lame pc excuses like a douchebag #joker</t>
+  </si>
+  <si>
+    <t>well. #joker is now a thing i've seen. #tiff</t>
+  </si>
+  <si>
+    <t>rt @peterhowellfilm: #joker: wow. joaquin phoenix and todd phillips summon dark mojo for a descent into madness, for the origin story to be…</t>
+  </si>
+  <si>
+    <t>so after watching #itchaptertwo i can honestly and proudly say that pennywise would have definitely been a better f… https://t.co/fmdjmbfhcc</t>
+  </si>
+  <si>
+    <t>here is our latest afternoon video update with today's top #tech #news stories.  produced and curated by a.i.… https://t.co/cpjghmeccc</t>
+  </si>
+  <si>
+    <t>rt @montyparker31: #tiff2019: #joker director todd phillips introduces his film tonight as “fucking bonkers.” god damn was he right. congra…</t>
+  </si>
+  <si>
+    <t>rt @ashleygmenzel: joaquin phoenix gives a twisted &amp;amp; darkly stunning performance. rife with social commentary on mental health, violence, s…</t>
+  </si>
+  <si>
+    <t>rt @lonny_aster: new hd joker stills. #joker (1/3) https://t.co/fncamaavhe</t>
+  </si>
+  <si>
+    <t>rt @complex: joaquin phoenix's #joker and robert pattinson's #batman will "definitely not" be in a movie together: https://t.co/ljnortrkdd…</t>
+  </si>
+  <si>
+    <t>rt @vanyaland617: #tiff19 review: joaquin phoenix brings the interesting #joker to life, writes @onlysaysficus  https://t.co/ozzpowxivy</t>
+  </si>
+  <si>
+    <t>i thought #it was okay. prolly gonna hold off on #itchaptertwo. i only have room in my life for one dancing #clown… https://t.co/mnnkebf5cn</t>
+  </si>
+  <si>
+    <t>rt @harleyquinndceu: me waiting for the #joker movie to finally be released.
+#jokermovie https://t.co/frt5zxlip4</t>
+  </si>
+  <si>
+    <t>rt @soufyanh_: what a great start of the morning hearing joker getting oscar buzz again. #joker https://t.co/l9q99y7bwn</t>
+  </si>
+  <si>
+    <t>#joker movie gets final trailer - https://t.co/j55lmtwezg https://t.co/9ksmgkcmli</t>
+  </si>
+  <si>
+    <t>#joker wins golden lion at la biennale di venezia/ #venicefilmfestival. the film, with a score by hildur gudnadótti… https://t.co/ntgxiabhb5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,6 +1812,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1469,7 +1829,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1507,6 +1867,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1515,13 +1886,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,6 +1910,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1542,7 +1920,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1580,9 +1958,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,9 +1993,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1650,9 +2045,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1825,11 +2237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B404"/>
   <sheetViews>
-    <sheetView topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,6 +4658,817 @@
         <v>1</v>
       </c>
     </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>369</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>362</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>378</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>379</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>380</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>364</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>381</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>382</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>383</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>368</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>384</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>380</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>376</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>363</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>385</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>386</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>387</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>388</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>366</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>367</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>363</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>389</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>390</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>365</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>391</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>361</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>392</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>393</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>394</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>360</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>395</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>396</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>397</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>398</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>399</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>400</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>373</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>401</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>402</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>403</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>363</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>404</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>363</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>405</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>406</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>407</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>408</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>409</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>373</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>368</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>410</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>366</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>362</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>411</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>372</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>412</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>370</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>370</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>413</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>414</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>376</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>415</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>371</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>362</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>416</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>377</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>413</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>417</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>418</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>379</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>419</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>420</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>371</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>421</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>422</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>423</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>375</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>412</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>362</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>424</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>425</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>374</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>366</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>426</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>427</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>428</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>429</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>430</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>402</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>431</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>363</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>432</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>363</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>433</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>434</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>360</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>435</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4253,11 +5476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5873,9 +7096,545 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>436</v>
+      </c>
+      <c r="B202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>361</v>
+      </c>
+      <c r="B203" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>437</v>
+      </c>
+      <c r="B204" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>438</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>439</v>
+      </c>
+      <c r="B207" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>366</v>
+      </c>
+      <c r="B208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>377</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>371</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>363</v>
+      </c>
+      <c r="B212" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>440</v>
+      </c>
+      <c r="B213" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>441</v>
+      </c>
+      <c r="B214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>442</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>371</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>443</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>374</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>362</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>362</v>
+      </c>
+      <c r="B221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>445</v>
+      </c>
+      <c r="B222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>380</v>
+      </c>
+      <c r="B223" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>360</v>
+      </c>
+      <c r="B224" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>449</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>368</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>366</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>452</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>453</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>454</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>455</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>360</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>379</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>375</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>363</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>456</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>454</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>457</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>402</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>371</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>370</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>373</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>454</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>375</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>458</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>459</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>363</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>451</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>460</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>461</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>462</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>363</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>362</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>375</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>363</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>463</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>464</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>446</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>458</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>448</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>465</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>466</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A143" r:id="rId1" location="downtonabbeyfilm%20#joker%20#frozen2%20#terminatordarkfate%20#theriseofskywalker_x000a__x000a_which%20film%20are%20you%20looking%20forward%20to?"/>
+    <hyperlink ref="A143" r:id="rId1" location="downtonabbeyfilm%20#joker%20#frozen2%20#terminatordarkfate%20#theriseofskywalker_x000a__x000a_which%20film%20are%20you%20looking%20forward%20to?" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
